--- a/medicine/Enfance/Charlotte_Maria_Tucker/Charlotte_Maria_Tucker.xlsx
+++ b/medicine/Enfance/Charlotte_Maria_Tucker/Charlotte_Maria_Tucker.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charlotte Maria Tucker (8 mai 1821 - 2 décembre 1893) est un écrivaine et poétesse britannique de littérature pour enfants et pour adultes. Auteur prolifique, elle signe ses œuvres sous le pseudonyme « A.L.O.E. » (pour A Lady of England). Vers la fin de sa vie, elle est missionnaire en Inde, où elle meurt.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Charlotte Maria Tucker naît le 8 mai 1821 près de Barnet dans le Middlesex en Angleterre[1] (Barnet sera intégré au borough londonien de Barnet à partir de 1965). Vivant à Londres, elle est instruite à la maison[2].
-C'est après le décès de son père en juin 1851 qu'elle se met à l'écriture. Son premier livre est publié en 1852. Chaque année subséquente, elle publie au moins un livre, tous les bénéfices étant versés à des organismes caritatifs. Lorsque sa mère meurt en 1869, la maison familiale est vendue et Charlotte emménage chez son frère. À l'âge de 54 ans, elle étudie les langues indiennes dans le but d'être missionnaire en Inde. Arrivée en 1875 en Inde, elle effectue diverses travaux pour l'éducation des jeunes Indiens[2].
-Elle décède le 2 décembre 1893 à Amritsar en Inde des suites d'une maladie[2].
-Le British Museum a publié un catalogue de ses livres parus entre 1854 et 1893 ; il comprenait plus 140 titres[2]. Sa compatriote Agnes Giberne (en), écrivain elle aussi, a publié une biographie de Charlotte Maria Tucker en 1895[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Charlotte Maria Tucker naît le 8 mai 1821 près de Barnet dans le Middlesex en Angleterre (Barnet sera intégré au borough londonien de Barnet à partir de 1965). Vivant à Londres, elle est instruite à la maison.
+C'est après le décès de son père en juin 1851 qu'elle se met à l'écriture. Son premier livre est publié en 1852. Chaque année subséquente, elle publie au moins un livre, tous les bénéfices étant versés à des organismes caritatifs. Lorsque sa mère meurt en 1869, la maison familiale est vendue et Charlotte emménage chez son frère. À l'âge de 54 ans, elle étudie les langues indiennes dans le but d'être missionnaire en Inde. Arrivée en 1875 en Inde, elle effectue diverses travaux pour l'éducation des jeunes Indiens.
+Elle décède le 2 décembre 1893 à Amritsar en Inde des suites d'une maladie.
+Le British Museum a publié un catalogue de ses livres parus entre 1854 et 1893 ; il comprenait plus 140 titres. Sa compatriote Agnes Giberne (en), écrivain elle aussi, a publié une biographie de Charlotte Maria Tucker en 1895.
 </t>
         </is>
       </c>
